--- a/biology/Zoologie/Hollanda/Hollanda.xlsx
+++ b/biology/Zoologie/Hollanda/Hollanda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hollanda luceria
-Hollanda est un genre de petits oiseaux terrestres Ornithuromorpha[1] connus à partir de fossiles trouvés dans la formation de Barun Goyot en Mongolie. 
+Hollanda est un genre de petits oiseaux terrestres Ornithuromorpha connus à partir de fossiles trouvés dans la formation de Barun Goyot en Mongolie. 
 L'holotype et seule espèce est Hollanda luceria. 
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trouvé à Khermeen Tsav, il date de la fin du Crétacé (étage campanien ), il y a environ 75 millions d'années. Connu uniquement pour ses membres postérieurs partiels, Hollanda a de longues jambes avec une configuration inhabituelle des orteils. Ceux-ci indiquent qu'il s'agissait d'un oiseau terrestre rapide, peut-être similaire au Geococcyx moderne[2]. Ses relations sont incertaines. Certaines études ont montré qu'il s'agissait d'un oiseau relativement avancé, membre des Ornithurae, apparenté à des oiseaux comme Ichthyornis. D'autres études l'ont récupéré en tant que membre de la famille primitive des Songlingornithidae[3]. Une étude plus approfondie l'a trouvé comme faisant partie des Enantiornithes[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trouvé à Khermeen Tsav, il date de la fin du Crétacé (étage campanien ), il y a environ 75 millions d'années. Connu uniquement pour ses membres postérieurs partiels, Hollanda a de longues jambes avec une configuration inhabituelle des orteils. Ceux-ci indiquent qu'il s'agissait d'un oiseau terrestre rapide, peut-être similaire au Geococcyx moderne. Ses relations sont incertaines. Certaines études ont montré qu'il s'agissait d'un oiseau relativement avancé, membre des Ornithurae, apparenté à des oiseaux comme Ichthyornis. D'autres études l'ont récupéré en tant que membre de la famille primitive des Songlingornithidae. Une étude plus approfondie l'a trouvé comme faisant partie des Enantiornithes. 
 </t>
         </is>
       </c>
